--- a/2022/Symphony/JUNE/27.06.2022/MC Bank Statement June-2022.xlsx
+++ b/2022/Symphony/JUNE/27.06.2022/MC Bank Statement June-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -9650,6 +9650,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -9663,12 +9669,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9682,8 +9682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -12553,14 +12553,14 @@
         <v>455910</v>
       </c>
       <c r="C27" s="56">
-        <v>530930</v>
+        <v>531450</v>
       </c>
       <c r="D27" s="53">
         <v>3230</v>
       </c>
       <c r="E27" s="53">
         <f t="shared" si="0"/>
-        <v>534160</v>
+        <v>534680</v>
       </c>
       <c r="F27" s="240"/>
       <c r="G27" s="249"/>
@@ -13175,7 +13175,7 @@
       </c>
       <c r="C33" s="264">
         <f>SUM(C5:C32)</f>
-        <v>9702180</v>
+        <v>9702700</v>
       </c>
       <c r="D33" s="263">
         <f>SUM(D5:D32)</f>
@@ -13183,11 +13183,11 @@
       </c>
       <c r="E33" s="263">
         <f>SUM(E5:E32)</f>
-        <v>9747830</v>
+        <v>9748350</v>
       </c>
       <c r="F33" s="263">
         <f>B33-E33</f>
-        <v>-966990</v>
+        <v>-967510</v>
       </c>
       <c r="G33" s="265"/>
       <c r="H33" s="145"/>
@@ -15419,7 +15419,7 @@
         <v>1749334499</v>
       </c>
       <c r="D53" s="216">
-        <v>79610</v>
+        <v>79090</v>
       </c>
       <c r="E53" s="184" t="s">
         <v>258</v>
@@ -22929,7 +22929,7 @@
       <c r="C119" s="358"/>
       <c r="D119" s="219">
         <f>SUM(D37:D118)</f>
-        <v>2416505</v>
+        <v>2415985</v>
       </c>
       <c r="E119" s="212"/>
       <c r="F119" s="144"/>
@@ -23136,7 +23136,7 @@
       <c r="C121" s="346"/>
       <c r="D121" s="219">
         <f>D119+M121</f>
-        <v>2416505</v>
+        <v>2415985</v>
       </c>
       <c r="E121" s="212"/>
       <c r="F121" s="144"/>
@@ -34370,8 +34370,8 @@
   </sheetPr>
   <dimension ref="A1:Y216"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
